--- a/data/pca/factorExposure/factorExposure_2010-05-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-05-27.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01558413570359671</v>
+        <v>-0.01684672388781397</v>
       </c>
       <c r="C2">
-        <v>0.005178184373599285</v>
+        <v>-0.0008613787730722764</v>
       </c>
       <c r="D2">
-        <v>-0.01512392008028681</v>
+        <v>-0.00929066285498621</v>
       </c>
       <c r="E2">
-        <v>0.02720018363668869</v>
+        <v>-0.0006141589421732898</v>
       </c>
       <c r="F2">
-        <v>0.01758500110643084</v>
+        <v>0.01283711699625011</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1194613311218059</v>
+        <v>-0.09466010480639044</v>
       </c>
       <c r="C4">
-        <v>0.1019714163533499</v>
+        <v>-0.01755095037453416</v>
       </c>
       <c r="D4">
-        <v>0.016201961116067</v>
+        <v>-0.08133155461186196</v>
       </c>
       <c r="E4">
-        <v>-0.05276465363062937</v>
+        <v>0.02874458319175249</v>
       </c>
       <c r="F4">
-        <v>0.1647477569768799</v>
+        <v>-0.03557448555194624</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1335160859495494</v>
+        <v>-0.1521669311202556</v>
       </c>
       <c r="C6">
-        <v>0.06483041944616399</v>
+        <v>-0.02451286352599428</v>
       </c>
       <c r="D6">
-        <v>0.005625835579328511</v>
+        <v>0.02294909923491864</v>
       </c>
       <c r="E6">
-        <v>-0.05619696312272521</v>
+        <v>0.008939023261952025</v>
       </c>
       <c r="F6">
-        <v>0.04766201398868481</v>
+        <v>-0.04064952189594768</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06477842414855234</v>
+        <v>-0.06158477812041136</v>
       </c>
       <c r="C7">
-        <v>0.0729998013161977</v>
+        <v>2.979911820837834e-05</v>
       </c>
       <c r="D7">
-        <v>-0.009048142646292421</v>
+        <v>-0.05186435406719479</v>
       </c>
       <c r="E7">
-        <v>0.0171663611650255</v>
+        <v>0.01631012688138396</v>
       </c>
       <c r="F7">
-        <v>0.005665654995482957</v>
+        <v>-0.05561612724828171</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04345556038973247</v>
+        <v>-0.05914973881247477</v>
       </c>
       <c r="C8">
-        <v>0.01841926726442778</v>
+        <v>0.01274228292905766</v>
       </c>
       <c r="D8">
-        <v>0.007296011386163767</v>
+        <v>-0.02793467966847184</v>
       </c>
       <c r="E8">
-        <v>-0.07741330946784053</v>
+        <v>0.01249327826410358</v>
       </c>
       <c r="F8">
-        <v>0.1220351694447789</v>
+        <v>0.02579271374222649</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08328890700959295</v>
+        <v>-0.07207366599803192</v>
       </c>
       <c r="C9">
-        <v>0.07120331514906854</v>
+        <v>-0.01375946442975611</v>
       </c>
       <c r="D9">
-        <v>0.02956876229465199</v>
+        <v>-0.08088059279704059</v>
       </c>
       <c r="E9">
-        <v>-0.04515323056661923</v>
+        <v>0.02420857281542824</v>
       </c>
       <c r="F9">
-        <v>0.1216622283805081</v>
+        <v>-0.05729251354986095</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1377352556894117</v>
+        <v>-0.09318533355450324</v>
       </c>
       <c r="C10">
-        <v>-0.1553195559147909</v>
+        <v>-0.01534049105445504</v>
       </c>
       <c r="D10">
-        <v>-0.01820074533605798</v>
+        <v>0.1711773232122002</v>
       </c>
       <c r="E10">
-        <v>0.01985468484433218</v>
+        <v>-0.03520694445197295</v>
       </c>
       <c r="F10">
-        <v>-0.002376552473018417</v>
+        <v>0.0517119528125388</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.06505810969763461</v>
+        <v>-0.08784112236409578</v>
       </c>
       <c r="C11">
-        <v>0.06248191798561303</v>
+        <v>-0.01285891553381743</v>
       </c>
       <c r="D11">
-        <v>0.04417462731567691</v>
+        <v>-0.1119596540905686</v>
       </c>
       <c r="E11">
-        <v>-0.01754623836638776</v>
+        <v>0.04470506108241581</v>
       </c>
       <c r="F11">
-        <v>0.06542879470668719</v>
+        <v>-0.02515727117745817</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.06520461539480196</v>
+        <v>-0.09311459942032574</v>
       </c>
       <c r="C12">
-        <v>0.06904826605410604</v>
+        <v>-0.01083268865091997</v>
       </c>
       <c r="D12">
-        <v>0.05565768479442545</v>
+        <v>-0.1186721283075567</v>
       </c>
       <c r="E12">
-        <v>-0.03229481973494055</v>
+        <v>0.04369018385166988</v>
       </c>
       <c r="F12">
-        <v>0.04974798826835067</v>
+        <v>-0.02739801808832365</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03920303523706734</v>
+        <v>-0.04435021311914675</v>
       </c>
       <c r="C13">
-        <v>0.04694375759179848</v>
+        <v>-0.004706806931826288</v>
       </c>
       <c r="D13">
-        <v>-0.01861201047309294</v>
+        <v>-0.04517190824139852</v>
       </c>
       <c r="E13">
-        <v>0.002905187820441199</v>
+        <v>-0.01250949788806034</v>
       </c>
       <c r="F13">
-        <v>0.02540422452716994</v>
+        <v>-0.01800636480759208</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03122304989564162</v>
+        <v>-0.02163683905349775</v>
       </c>
       <c r="C14">
-        <v>0.02970254921850177</v>
+        <v>-0.01488551333623333</v>
       </c>
       <c r="D14">
-        <v>0.02452743485011597</v>
+        <v>-0.03144371603955182</v>
       </c>
       <c r="E14">
-        <v>-0.02132741963127299</v>
+        <v>0.01800124984218569</v>
       </c>
       <c r="F14">
-        <v>0.03591524891122146</v>
+        <v>-0.02115354857458406</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01769686458805635</v>
+        <v>-0.03250567256425423</v>
       </c>
       <c r="C15">
-        <v>0.01994339632043434</v>
+        <v>-0.005774065277598917</v>
       </c>
       <c r="D15">
-        <v>-0.06677953099881255</v>
+        <v>-0.04446870068448728</v>
       </c>
       <c r="E15">
-        <v>0.008148300144340898</v>
+        <v>0.008831649771066404</v>
       </c>
       <c r="F15">
-        <v>0.02585987504418674</v>
+        <v>-0.03278991028327091</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07490768487098197</v>
+        <v>-0.07544090268591577</v>
       </c>
       <c r="C16">
-        <v>0.07750595102223505</v>
+        <v>-0.004684082058521315</v>
       </c>
       <c r="D16">
-        <v>0.04087841831512579</v>
+        <v>-0.1149707272745881</v>
       </c>
       <c r="E16">
-        <v>-0.01915904050721064</v>
+        <v>0.06081483904442265</v>
       </c>
       <c r="F16">
-        <v>0.06200492437379923</v>
+        <v>-0.03395393315294735</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02099799280825822</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003730263914756903</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02146513306991157</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01176536726666902</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02470765497458112</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.0416863686142366</v>
+        <v>-0.06172586231063065</v>
       </c>
       <c r="C20">
-        <v>0.02231627950446528</v>
+        <v>-0.002294089057759228</v>
       </c>
       <c r="D20">
-        <v>-0.0262414279926697</v>
+        <v>-0.07117679735799198</v>
       </c>
       <c r="E20">
-        <v>-0.04084490347574905</v>
+        <v>0.0532144066099685</v>
       </c>
       <c r="F20">
-        <v>0.03633520112255727</v>
+        <v>-0.03010658303877537</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02189272641825243</v>
+        <v>-0.03885783917794851</v>
       </c>
       <c r="C21">
-        <v>0.0200958747607129</v>
+        <v>-0.00781540785563911</v>
       </c>
       <c r="D21">
-        <v>0.02126163292097872</v>
+        <v>-0.03412863454102267</v>
       </c>
       <c r="E21">
-        <v>-0.02133893286589738</v>
+        <v>-0.009117169100237745</v>
       </c>
       <c r="F21">
-        <v>0.02800581918830295</v>
+        <v>0.01840646990180647</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.06171874864899626</v>
+        <v>-0.04328120185405228</v>
       </c>
       <c r="C22">
-        <v>0.03527042885088472</v>
+        <v>-0.0004269141517316035</v>
       </c>
       <c r="D22">
-        <v>-0.6393697703868743</v>
+        <v>-0.002338206740346799</v>
       </c>
       <c r="E22">
-        <v>-0.08638076575382679</v>
+        <v>0.03042246953266134</v>
       </c>
       <c r="F22">
-        <v>-0.1197349561798028</v>
+        <v>0.01501118827300906</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.06254459350070933</v>
+        <v>-0.0433591890531069</v>
       </c>
       <c r="C23">
-        <v>0.03752608031112956</v>
+        <v>-0.0004578019896452094</v>
       </c>
       <c r="D23">
-        <v>-0.641908305524717</v>
+        <v>-0.002530978350209984</v>
       </c>
       <c r="E23">
-        <v>-0.08853313883847924</v>
+        <v>0.03081504948616328</v>
       </c>
       <c r="F23">
-        <v>-0.115574926816618</v>
+        <v>0.01443663389978266</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07327696400676072</v>
+        <v>-0.08160681938741302</v>
       </c>
       <c r="C24">
-        <v>0.07628116081649056</v>
+        <v>-0.004820074264360117</v>
       </c>
       <c r="D24">
-        <v>0.03390515293729909</v>
+        <v>-0.1155476907830104</v>
       </c>
       <c r="E24">
-        <v>-0.009260126631617079</v>
+        <v>0.04806689681497313</v>
       </c>
       <c r="F24">
-        <v>0.06593154959946526</v>
+        <v>-0.02618054484985428</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07489273574447371</v>
+        <v>-0.0856295689619266</v>
       </c>
       <c r="C25">
-        <v>0.06224119707147081</v>
+        <v>-0.006803987373488689</v>
       </c>
       <c r="D25">
-        <v>0.05686881778510878</v>
+        <v>-0.1026729614024527</v>
       </c>
       <c r="E25">
-        <v>-0.02078918524216582</v>
+        <v>0.03062238926547808</v>
       </c>
       <c r="F25">
-        <v>0.06837884414697394</v>
+        <v>-0.03455633431747995</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03871794453316781</v>
+        <v>-0.05608766926928741</v>
       </c>
       <c r="C26">
-        <v>-0.002598614329671844</v>
+        <v>-0.01557570529044776</v>
       </c>
       <c r="D26">
-        <v>-0.01111087717787434</v>
+        <v>-0.03352892099296374</v>
       </c>
       <c r="E26">
-        <v>-0.07911333864093015</v>
+        <v>0.02523841945608233</v>
       </c>
       <c r="F26">
-        <v>0.01416684948109506</v>
+        <v>0.005623468796259593</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1622987398379827</v>
+        <v>-0.1392574752764917</v>
       </c>
       <c r="C28">
-        <v>-0.274732382736397</v>
+        <v>-0.01280817800347231</v>
       </c>
       <c r="D28">
-        <v>0.007581798086600036</v>
+        <v>0.2710961517607239</v>
       </c>
       <c r="E28">
-        <v>-0.03534741619328258</v>
+        <v>-0.06631225807123939</v>
       </c>
       <c r="F28">
-        <v>0.01182083964595481</v>
+        <v>-0.03666686672523443</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03130336464645138</v>
+        <v>-0.02711230765898256</v>
       </c>
       <c r="C29">
-        <v>0.02754060548030065</v>
+        <v>-0.009225371918094905</v>
       </c>
       <c r="D29">
-        <v>0.02486251417157822</v>
+        <v>-0.03005226592108223</v>
       </c>
       <c r="E29">
-        <v>-0.03004227619197033</v>
+        <v>0.01071123341052129</v>
       </c>
       <c r="F29">
-        <v>0.03429098237105757</v>
+        <v>0.009565916700791295</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0950905651550582</v>
+        <v>-0.0645954330014086</v>
       </c>
       <c r="C30">
-        <v>0.07417052619505309</v>
+        <v>-0.006479523871207346</v>
       </c>
       <c r="D30">
-        <v>0.03467392733214109</v>
+        <v>-0.07937034711268458</v>
       </c>
       <c r="E30">
-        <v>-0.2559592914385038</v>
+        <v>0.02239054620883612</v>
       </c>
       <c r="F30">
-        <v>0.002529750798738152</v>
+        <v>-0.1175765945040377</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03062028041874997</v>
+        <v>-0.04889092909588336</v>
       </c>
       <c r="C31">
-        <v>0.06485378264555794</v>
+        <v>-0.01520684054763306</v>
       </c>
       <c r="D31">
-        <v>0.00141910281758225</v>
+        <v>-0.02902753296988253</v>
       </c>
       <c r="E31">
-        <v>-0.001307365432689764</v>
+        <v>0.02727917812430044</v>
       </c>
       <c r="F31">
-        <v>0.04007645498255364</v>
+        <v>0.002363201808506973</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05241774654044069</v>
+        <v>-0.04916107146609908</v>
       </c>
       <c r="C32">
-        <v>0.01910619073228376</v>
+        <v>-0.0005517876708854995</v>
       </c>
       <c r="D32">
-        <v>0.05553413024107284</v>
+        <v>-0.02981410644605915</v>
       </c>
       <c r="E32">
-        <v>-0.0151751685388234</v>
+        <v>0.02946020574782401</v>
       </c>
       <c r="F32">
-        <v>0.08327719666518511</v>
+        <v>-0.001460084802863331</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08366534788669169</v>
+        <v>-0.09076603817062757</v>
       </c>
       <c r="C33">
-        <v>0.06586307680151569</v>
+        <v>-0.009918226674375381</v>
       </c>
       <c r="D33">
-        <v>0.03608162199065538</v>
+        <v>-0.0912240283620455</v>
       </c>
       <c r="E33">
-        <v>-0.03289342794974737</v>
+        <v>0.04510156142410064</v>
       </c>
       <c r="F33">
-        <v>0.01330004687405772</v>
+        <v>-0.04080059902284842</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06472090826018218</v>
+        <v>-0.06904595514296205</v>
       </c>
       <c r="C34">
-        <v>0.06287562513902323</v>
+        <v>-0.01281647766341098</v>
       </c>
       <c r="D34">
-        <v>0.04414608043645155</v>
+        <v>-0.09621145724902809</v>
       </c>
       <c r="E34">
-        <v>-0.02659089899660862</v>
+        <v>0.0327454771718786</v>
       </c>
       <c r="F34">
-        <v>0.07133660382740264</v>
+        <v>-0.04875215402948131</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01393315862701169</v>
+        <v>-0.02436334341913222</v>
       </c>
       <c r="C35">
-        <v>0.01124904237317582</v>
+        <v>-0.002702658477132744</v>
       </c>
       <c r="D35">
-        <v>-0.000446492031883687</v>
+        <v>-0.01035562817080006</v>
       </c>
       <c r="E35">
-        <v>-0.02158269841122092</v>
+        <v>0.01102896589734044</v>
       </c>
       <c r="F35">
-        <v>0.02836600630082829</v>
+        <v>-0.01147758190264454</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02353245719023823</v>
+        <v>-0.02526727248445385</v>
       </c>
       <c r="C36">
-        <v>0.01445901684636786</v>
+        <v>-0.007297997221847262</v>
       </c>
       <c r="D36">
-        <v>-0.009640544016303352</v>
+        <v>-0.03760845332218872</v>
       </c>
       <c r="E36">
-        <v>-0.03668125295865278</v>
+        <v>0.01648369749040644</v>
       </c>
       <c r="F36">
-        <v>0.03882044863259272</v>
+        <v>-0.008670915879374486</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.01653271564937893</v>
+        <v>-0.002395567305908231</v>
       </c>
       <c r="C38">
-        <v>0.03794074022844706</v>
+        <v>-0.0004066515967647192</v>
       </c>
       <c r="D38">
-        <v>-0.02255569141276932</v>
+        <v>-0.002072207619501346</v>
       </c>
       <c r="E38">
-        <v>0.009234482407901737</v>
+        <v>0.002802348184387994</v>
       </c>
       <c r="F38">
-        <v>-0.1095192878335888</v>
+        <v>0.002371911615706905</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1069422235047612</v>
+        <v>-0.1109884278052094</v>
       </c>
       <c r="C39">
-        <v>0.107185316205914</v>
+        <v>-0.01863731087460633</v>
       </c>
       <c r="D39">
-        <v>0.1385622940363333</v>
+        <v>-0.1483268522218801</v>
       </c>
       <c r="E39">
-        <v>-0.1203526059781715</v>
+        <v>0.05635679016004064</v>
       </c>
       <c r="F39">
-        <v>0.0205329157279325</v>
+        <v>-0.03651150190298066</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02466279413109877</v>
+        <v>-0.03752548116029578</v>
       </c>
       <c r="C40">
-        <v>0.06792004407402014</v>
+        <v>-0.007665262461615382</v>
       </c>
       <c r="D40">
-        <v>-0.02465812541651488</v>
+        <v>-0.02992100684741391</v>
       </c>
       <c r="E40">
-        <v>0.03328733864394462</v>
+        <v>0.004109993437921545</v>
       </c>
       <c r="F40">
-        <v>0.03008178707667277</v>
+        <v>0.01957584324642384</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03726007305446643</v>
+        <v>-0.02670027818297721</v>
       </c>
       <c r="C41">
-        <v>0.03310040680974047</v>
+        <v>-0.006915406968243176</v>
       </c>
       <c r="D41">
-        <v>0.01906848755323225</v>
+        <v>-0.01109568894554384</v>
       </c>
       <c r="E41">
-        <v>-0.01960545732587134</v>
+        <v>0.01233897210888735</v>
       </c>
       <c r="F41">
-        <v>0.001544265557141738</v>
+        <v>0.01185213462857589</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04712060658374422</v>
+        <v>-0.04261017679319025</v>
       </c>
       <c r="C43">
-        <v>0.05006458536125646</v>
+        <v>-0.007222975152199303</v>
       </c>
       <c r="D43">
-        <v>-0.008417928015984923</v>
+        <v>-0.02108384265153297</v>
       </c>
       <c r="E43">
-        <v>-0.03171255036832721</v>
+        <v>0.0262644960620174</v>
       </c>
       <c r="F43">
-        <v>-0.004834463234741038</v>
+        <v>0.01181136780631891</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.09809112420195783</v>
+        <v>-0.07314852889427845</v>
       </c>
       <c r="C44">
-        <v>0.1082229344889055</v>
+        <v>-0.02270094278835717</v>
       </c>
       <c r="D44">
-        <v>-0.07707294974552724</v>
+        <v>-0.09831044904384272</v>
       </c>
       <c r="E44">
-        <v>-0.02455176337421221</v>
+        <v>0.06707275408243525</v>
       </c>
       <c r="F44">
-        <v>0.04339716459081415</v>
+        <v>-0.1754523434985512</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.0338400502514106</v>
+        <v>-0.02357825287578628</v>
       </c>
       <c r="C46">
-        <v>0.03446995409474233</v>
+        <v>-0.004272012152998161</v>
       </c>
       <c r="D46">
-        <v>-0.03526293248118091</v>
+        <v>-0.01126509957451619</v>
       </c>
       <c r="E46">
-        <v>-0.0003025397078198874</v>
+        <v>0.02395529534892984</v>
       </c>
       <c r="F46">
-        <v>0.02168508610294476</v>
+        <v>0.0003486117538787041</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0461653396202298</v>
+        <v>-0.05308881179281762</v>
       </c>
       <c r="C47">
-        <v>0.04338185143289523</v>
+        <v>-0.00348682762432595</v>
       </c>
       <c r="D47">
-        <v>-0.0004544179338022653</v>
+        <v>-0.01295546984244465</v>
       </c>
       <c r="E47">
-        <v>-0.008644991643627177</v>
+        <v>0.02239440680563633</v>
       </c>
       <c r="F47">
-        <v>0.008657994846991908</v>
+        <v>0.04679388724004152</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04366044869971663</v>
+        <v>-0.04805496111414943</v>
       </c>
       <c r="C48">
-        <v>0.01622143268416304</v>
+        <v>-0.003357670649509042</v>
       </c>
       <c r="D48">
-        <v>0.01394144427725775</v>
+        <v>-0.04541744478558674</v>
       </c>
       <c r="E48">
-        <v>-0.01162489952050768</v>
+        <v>-0.006326405941279051</v>
       </c>
       <c r="F48">
-        <v>0.06319250103365147</v>
+        <v>-0.01485816206189805</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2225188120432521</v>
+        <v>-0.203606289494363</v>
       </c>
       <c r="C49">
-        <v>0.02724168060351675</v>
+        <v>-0.01701398931125743</v>
       </c>
       <c r="D49">
-        <v>0.02570272751083005</v>
+        <v>0.008990974764659784</v>
       </c>
       <c r="E49">
-        <v>0.2076943939882832</v>
+        <v>0.03861148836241211</v>
       </c>
       <c r="F49">
-        <v>-0.2106184298435362</v>
+        <v>-0.03281533923698959</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03980308551988616</v>
+        <v>-0.0488050647462725</v>
       </c>
       <c r="C50">
-        <v>0.04139006868670533</v>
+        <v>-0.01121431234372051</v>
       </c>
       <c r="D50">
-        <v>0.01932950385248586</v>
+        <v>-0.02584306221197537</v>
       </c>
       <c r="E50">
-        <v>-0.04182473954527044</v>
+        <v>0.028723714034615</v>
       </c>
       <c r="F50">
-        <v>0.02149775658332391</v>
+        <v>-0.007948710208325349</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.02417902190111407</v>
+        <v>-0.003198959764705873</v>
       </c>
       <c r="C51">
-        <v>-0.004548090479625067</v>
+        <v>-0.0007634278994333223</v>
       </c>
       <c r="D51">
-        <v>-0.002836677936987361</v>
+        <v>0.002067543528810041</v>
       </c>
       <c r="E51">
-        <v>0.04820272751507047</v>
+        <v>0.0009048029304244899</v>
       </c>
       <c r="F51">
-        <v>-0.01053297780084876</v>
+        <v>-0.004430742477998209</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.06447625179181125</v>
+        <v>-0.1434754575696431</v>
       </c>
       <c r="C52">
-        <v>0.04870292066097531</v>
+        <v>-0.01298208376363251</v>
       </c>
       <c r="D52">
-        <v>0.0279956008330215</v>
+        <v>-0.05050296697311223</v>
       </c>
       <c r="E52">
-        <v>-0.04575323182588964</v>
+        <v>0.01906583212532188</v>
       </c>
       <c r="F52">
-        <v>-0.02327522972813794</v>
+        <v>-0.03508524546156184</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1578054963358849</v>
+        <v>-0.1734199915489615</v>
       </c>
       <c r="C53">
-        <v>0.07469923941907892</v>
+        <v>-0.01580640879783701</v>
       </c>
       <c r="D53">
-        <v>-0.01294029989533354</v>
+        <v>-0.01530493081406173</v>
       </c>
       <c r="E53">
-        <v>-0.007640926184401915</v>
+        <v>0.03643042798078148</v>
       </c>
       <c r="F53">
-        <v>-0.08267913256071549</v>
+        <v>-0.06651656951317063</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05386769131931084</v>
+        <v>-0.02265906302049285</v>
       </c>
       <c r="C54">
-        <v>0.05237856359109655</v>
+        <v>-0.01274195576594428</v>
       </c>
       <c r="D54">
-        <v>0.004573729501644825</v>
+        <v>-0.03251756910617726</v>
       </c>
       <c r="E54">
-        <v>-0.05458412655638594</v>
+        <v>0.01403342973987166</v>
       </c>
       <c r="F54">
-        <v>0.1205502922840584</v>
+        <v>0.003137595827694893</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08005264096806414</v>
+        <v>-0.1142471953803678</v>
       </c>
       <c r="C55">
-        <v>0.05362431032424013</v>
+        <v>-0.01452715902659858</v>
       </c>
       <c r="D55">
-        <v>0.03273410194851373</v>
+        <v>-0.01422452087916661</v>
       </c>
       <c r="E55">
-        <v>0.01323137715204076</v>
+        <v>0.03041508361415081</v>
       </c>
       <c r="F55">
-        <v>-0.02469343313991695</v>
+        <v>-0.04896534076041235</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1420343999517463</v>
+        <v>-0.1771670908116127</v>
       </c>
       <c r="C56">
-        <v>0.08993999634674253</v>
+        <v>-0.0132461117243648</v>
       </c>
       <c r="D56">
-        <v>0.0259788041363371</v>
+        <v>-0.009379707985730363</v>
       </c>
       <c r="E56">
-        <v>0.03566125671880618</v>
+        <v>0.03981172588087036</v>
       </c>
       <c r="F56">
-        <v>-0.07827876197753515</v>
+        <v>-0.03776243592642513</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04972537199245609</v>
+        <v>-0.04690548592777461</v>
       </c>
       <c r="C58">
-        <v>0.0393969592428983</v>
+        <v>-0.003068193438135079</v>
       </c>
       <c r="D58">
-        <v>-0.03669184304542841</v>
+        <v>-0.06361461308224801</v>
       </c>
       <c r="E58">
-        <v>-0.01284254104238863</v>
+        <v>0.0209728190384093</v>
       </c>
       <c r="F58">
-        <v>-0.0164641918164274</v>
+        <v>0.05000668485711463</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2224739223187659</v>
+        <v>-0.1704298407665874</v>
       </c>
       <c r="C59">
-        <v>-0.2257989799796015</v>
+        <v>-0.01468001051146451</v>
       </c>
       <c r="D59">
-        <v>0.04258601482123945</v>
+        <v>0.2300932387260301</v>
       </c>
       <c r="E59">
-        <v>0.04628253569141376</v>
+        <v>-0.04754124509193911</v>
       </c>
       <c r="F59">
-        <v>0.06250731222277302</v>
+        <v>0.03284663766417375</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2253957490902069</v>
+        <v>-0.2380752508163965</v>
       </c>
       <c r="C60">
-        <v>0.1388799753397729</v>
+        <v>0.004321221633345371</v>
       </c>
       <c r="D60">
-        <v>0.07064097690200961</v>
+        <v>-0.04984806000554839</v>
       </c>
       <c r="E60">
-        <v>0.0892173472158997</v>
+        <v>0.008435257531320664</v>
       </c>
       <c r="F60">
-        <v>-0.1091856677037413</v>
+        <v>0.03831884065919906</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1104171872585667</v>
+        <v>-0.08576418072174165</v>
       </c>
       <c r="C61">
-        <v>0.08135557684459978</v>
+        <v>-0.01454752351293772</v>
       </c>
       <c r="D61">
-        <v>0.08364032122809711</v>
+        <v>-0.1092559951514139</v>
       </c>
       <c r="E61">
-        <v>-0.07657901807346799</v>
+        <v>0.03860285428462322</v>
       </c>
       <c r="F61">
-        <v>0.04902432147883242</v>
+        <v>-0.02052145668705917</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1359725995280059</v>
+        <v>-0.1693528723600985</v>
       </c>
       <c r="C62">
-        <v>0.07371608548198935</v>
+        <v>-0.01713048259299108</v>
       </c>
       <c r="D62">
-        <v>-0.0008630324754610434</v>
+        <v>-0.01320856925603835</v>
       </c>
       <c r="E62">
-        <v>0.02887007847973974</v>
+        <v>0.03667316398588597</v>
       </c>
       <c r="F62">
-        <v>-0.09328961240680388</v>
+        <v>-0.01860920060750944</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04678045741284804</v>
+        <v>-0.04265561054653186</v>
       </c>
       <c r="C63">
-        <v>0.02970340678852932</v>
+        <v>-0.004060480934496136</v>
       </c>
       <c r="D63">
-        <v>0.01179750915314559</v>
+        <v>-0.04833098063723743</v>
       </c>
       <c r="E63">
-        <v>-0.04196756054191564</v>
+        <v>0.01909703727247673</v>
       </c>
       <c r="F63">
-        <v>0.04878170962048893</v>
+        <v>-0.01029909068654271</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09197978127645393</v>
+        <v>-0.1122286742052952</v>
       </c>
       <c r="C64">
-        <v>0.05676501088813884</v>
+        <v>-0.01186383765235214</v>
       </c>
       <c r="D64">
-        <v>0.008475547734260245</v>
+        <v>-0.04045449741903795</v>
       </c>
       <c r="E64">
-        <v>-0.05978115587737947</v>
+        <v>0.01983992220117011</v>
       </c>
       <c r="F64">
-        <v>0.0002738625423300377</v>
+        <v>-0.01895295713551975</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1208792567646266</v>
+        <v>-0.143679395543315</v>
       </c>
       <c r="C65">
-        <v>0.05651177474863264</v>
+        <v>-0.0311502860673154</v>
       </c>
       <c r="D65">
-        <v>0.02334895205306588</v>
+        <v>0.04513386034903893</v>
       </c>
       <c r="E65">
-        <v>-0.09105461960527572</v>
+        <v>0.0005169092548712636</v>
       </c>
       <c r="F65">
-        <v>0.02009512284381798</v>
+        <v>-0.04389192505297743</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1216554812981541</v>
+        <v>-0.1325864498046082</v>
       </c>
       <c r="C66">
-        <v>0.1315818037453697</v>
+        <v>-0.01613917064858911</v>
       </c>
       <c r="D66">
-        <v>0.1276778361464449</v>
+        <v>-0.135941806178635</v>
       </c>
       <c r="E66">
-        <v>-0.1061636834442155</v>
+        <v>0.06333527412746985</v>
       </c>
       <c r="F66">
-        <v>-0.027332144557735</v>
+        <v>-0.04119266101945306</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06912417538407949</v>
+        <v>-0.06439648013452207</v>
       </c>
       <c r="C67">
-        <v>0.04465083124658751</v>
+        <v>-0.003902053162009418</v>
       </c>
       <c r="D67">
-        <v>-0.03368973055255925</v>
+        <v>-0.05479931969582044</v>
       </c>
       <c r="E67">
-        <v>0.02205028499374881</v>
+        <v>0.02058437800437345</v>
       </c>
       <c r="F67">
-        <v>-0.09711731435741769</v>
+        <v>0.04210003901800619</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1388148755797921</v>
+        <v>-0.1132654042546191</v>
       </c>
       <c r="C68">
-        <v>-0.251068422641447</v>
+        <v>-0.02393014814547969</v>
       </c>
       <c r="D68">
-        <v>0.02142000823380618</v>
+        <v>0.2678859312290614</v>
       </c>
       <c r="E68">
-        <v>-0.05167122456373387</v>
+        <v>-0.08493918170636004</v>
       </c>
       <c r="F68">
-        <v>0.03255129004533544</v>
+        <v>-0.04301698621958924</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.0487409495215262</v>
+        <v>-0.04035367869676618</v>
       </c>
       <c r="C69">
-        <v>0.02187589715152777</v>
+        <v>-0.001212625961365456</v>
       </c>
       <c r="D69">
-        <v>-0.00102456666046771</v>
+        <v>-0.009633789139053762</v>
       </c>
       <c r="E69">
-        <v>-0.02908516157692494</v>
+        <v>0.024753561918524</v>
       </c>
       <c r="F69">
-        <v>-0.009989460043396936</v>
+        <v>0.01525129200072592</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.04797800121165557</v>
+        <v>-0.06468959128063462</v>
       </c>
       <c r="C70">
-        <v>0.03233176656949889</v>
+        <v>0.02750172970817619</v>
       </c>
       <c r="D70">
-        <v>0.0347372172142028</v>
+        <v>-0.02596466370943139</v>
       </c>
       <c r="E70">
-        <v>-0.07417203234512708</v>
+        <v>-0.04721494996817027</v>
       </c>
       <c r="F70">
-        <v>0.03152675886265534</v>
+        <v>0.3146726758184057</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.159544210591328</v>
+        <v>-0.1321383572786792</v>
       </c>
       <c r="C71">
-        <v>-0.2648936733002202</v>
+        <v>-0.02801887026771818</v>
       </c>
       <c r="D71">
-        <v>0.01632637147727862</v>
+        <v>0.2840312401006997</v>
       </c>
       <c r="E71">
-        <v>-0.06686999015936254</v>
+        <v>-0.09264001277805971</v>
       </c>
       <c r="F71">
-        <v>0.003145147192695093</v>
+        <v>-0.04563191358237471</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1346733184537468</v>
+        <v>-0.1380956339367478</v>
       </c>
       <c r="C72">
-        <v>0.01928280634311766</v>
+        <v>-0.02416750825194768</v>
       </c>
       <c r="D72">
-        <v>0.006882062196417834</v>
+        <v>-0.004148777460289773</v>
       </c>
       <c r="E72">
-        <v>-0.04586096843247192</v>
+        <v>0.04226220107737149</v>
       </c>
       <c r="F72">
-        <v>-0.02799718323895177</v>
+        <v>-0.02358947292884963</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2156506225121786</v>
+        <v>-0.2065364610650664</v>
       </c>
       <c r="C73">
-        <v>0.09409442654839907</v>
+        <v>-0.01134657933170058</v>
       </c>
       <c r="D73">
-        <v>0.1160284904645024</v>
+        <v>-0.01804682426000504</v>
       </c>
       <c r="E73">
-        <v>0.271266999361114</v>
+        <v>0.06617026216419593</v>
       </c>
       <c r="F73">
-        <v>-0.4148370003755035</v>
+        <v>-0.02877967323513683</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1031660629196571</v>
+        <v>-0.09421984417465326</v>
       </c>
       <c r="C74">
-        <v>0.1011835124102438</v>
+        <v>-0.01187449777256308</v>
       </c>
       <c r="D74">
-        <v>0.009852010705632493</v>
+        <v>-0.02463489678260414</v>
       </c>
       <c r="E74">
-        <v>-0.02920059177027658</v>
+        <v>0.04925029490063571</v>
       </c>
       <c r="F74">
-        <v>-0.09898415738558226</v>
+        <v>-0.04230172960043368</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.09685251830921149</v>
+        <v>-0.1298595103343703</v>
       </c>
       <c r="C75">
-        <v>0.06831490877062665</v>
+        <v>-0.02624234075436753</v>
       </c>
       <c r="D75">
-        <v>0.004999590361064251</v>
+        <v>-0.03452759329987518</v>
       </c>
       <c r="E75">
-        <v>0.03531754455591161</v>
+        <v>0.05943404246664025</v>
       </c>
       <c r="F75">
-        <v>-0.007046335601223035</v>
+        <v>-0.01207092019325062</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0463934995518027</v>
+        <v>-0.006362563049823127</v>
       </c>
       <c r="C76">
-        <v>0.04243089055332627</v>
+        <v>-0.001425353130726256</v>
       </c>
       <c r="D76">
-        <v>-0.001834616541793908</v>
+        <v>-0.0009575174930861192</v>
       </c>
       <c r="E76">
-        <v>0.05261394634950457</v>
+        <v>0.005390260602734185</v>
       </c>
       <c r="F76">
-        <v>-0.0199182599816431</v>
+        <v>-0.003830058078730556</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06423671598796342</v>
+        <v>-0.07976687759386562</v>
       </c>
       <c r="C77">
-        <v>0.02241798331323229</v>
+        <v>-0.01065324954896748</v>
       </c>
       <c r="D77">
-        <v>0.04060224053964034</v>
+        <v>-0.1085400456695993</v>
       </c>
       <c r="E77">
-        <v>-0.04130522736247014</v>
+        <v>0.03565084283404746</v>
       </c>
       <c r="F77">
-        <v>0.08692457059203219</v>
+        <v>-0.03118313350691729</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1336641064474229</v>
+        <v>-0.108270653912335</v>
       </c>
       <c r="C78">
-        <v>0.1100174875433268</v>
+        <v>-0.04263604389879817</v>
       </c>
       <c r="D78">
-        <v>-0.1859451991754441</v>
+        <v>-0.1165899981326691</v>
       </c>
       <c r="E78">
-        <v>0.4680625506149362</v>
+        <v>0.08744570876153504</v>
       </c>
       <c r="F78">
-        <v>0.6751539748019199</v>
+        <v>-0.07291086234958473</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1332102465254636</v>
+        <v>-0.1635432260074103</v>
       </c>
       <c r="C79">
-        <v>0.09157278147396472</v>
+        <v>-0.02013840246943773</v>
       </c>
       <c r="D79">
-        <v>-0.003227168045095757</v>
+        <v>-0.02055711735455118</v>
       </c>
       <c r="E79">
-        <v>0.02759814315988331</v>
+        <v>0.04681828886651882</v>
       </c>
       <c r="F79">
-        <v>-0.05648086411272182</v>
+        <v>-0.01053035200633385</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.0695935365685366</v>
+        <v>-0.08047760282312874</v>
       </c>
       <c r="C80">
-        <v>0.05345251132612808</v>
+        <v>0.0005340747712779443</v>
       </c>
       <c r="D80">
-        <v>0.08663013756716785</v>
+        <v>-0.05634326586215736</v>
       </c>
       <c r="E80">
-        <v>-0.06835314590714717</v>
+        <v>0.03289358057019705</v>
       </c>
       <c r="F80">
-        <v>0.03678751987045414</v>
+        <v>0.01594646014280394</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1299314645548376</v>
+        <v>-0.123351919731933</v>
       </c>
       <c r="C81">
-        <v>0.09115860172479298</v>
+        <v>-0.03016648916833823</v>
       </c>
       <c r="D81">
-        <v>-0.006129781450822493</v>
+        <v>-0.0202189032914362</v>
       </c>
       <c r="E81">
-        <v>-0.01902489563132282</v>
+        <v>0.05912329117271213</v>
       </c>
       <c r="F81">
-        <v>0.02180825617250303</v>
+        <v>-0.001739141248871026</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1337716208377159</v>
+        <v>-0.1629862673344915</v>
       </c>
       <c r="C82">
-        <v>0.07104805248787099</v>
+        <v>-0.02065358912833201</v>
       </c>
       <c r="D82">
-        <v>0.01175901605817845</v>
+        <v>-0.0179548068794947</v>
       </c>
       <c r="E82">
-        <v>-0.04651375020571389</v>
+        <v>0.0339766716445828</v>
       </c>
       <c r="F82">
-        <v>-0.05528185270923488</v>
+        <v>-0.05967179542319719</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.07477935093012619</v>
+        <v>-0.06510869529922925</v>
       </c>
       <c r="C83">
-        <v>0.09692088812421229</v>
+        <v>-0.003897150126827282</v>
       </c>
       <c r="D83">
-        <v>0.03654203852801518</v>
+        <v>-0.04841143804012757</v>
       </c>
       <c r="E83">
-        <v>-0.1361729309379727</v>
+        <v>0.005501826284564607</v>
       </c>
       <c r="F83">
-        <v>-0.02909460836279442</v>
+        <v>0.04142321703006555</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06439200444669858</v>
+        <v>-0.06062982707509186</v>
       </c>
       <c r="C84">
-        <v>-0.07578183369937558</v>
+        <v>-0.01141695582528342</v>
       </c>
       <c r="D84">
-        <v>0.02948268875522178</v>
+        <v>-0.06029057121346226</v>
       </c>
       <c r="E84">
-        <v>0.07528394952445128</v>
+        <v>-0.0008650974960519975</v>
       </c>
       <c r="F84">
-        <v>0.1121649143552164</v>
+        <v>-0.01426416779105326</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1176296253383269</v>
+        <v>-0.1383008352223132</v>
       </c>
       <c r="C85">
-        <v>0.05966286145305064</v>
+        <v>-0.0255547830732009</v>
       </c>
       <c r="D85">
-        <v>0.0065145814827483</v>
+        <v>-0.01616694118054799</v>
       </c>
       <c r="E85">
-        <v>0.02003435167652958</v>
+        <v>0.04018507396074069</v>
       </c>
       <c r="F85">
-        <v>-0.08032822447455783</v>
+        <v>-0.04540290464711483</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.0883962223664978</v>
+        <v>-0.09872578754403936</v>
       </c>
       <c r="C86">
-        <v>0.01771331632227419</v>
+        <v>0.006629989673982968</v>
       </c>
       <c r="D86">
-        <v>-0.02883034246877289</v>
+        <v>-0.02053504853778245</v>
       </c>
       <c r="E86">
-        <v>0.3547110385479754</v>
+        <v>0.1375465102205004</v>
       </c>
       <c r="F86">
-        <v>-0.003677716396656331</v>
+        <v>0.845450652964054</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1160434696726098</v>
+        <v>-0.09992987903794884</v>
       </c>
       <c r="C87">
-        <v>0.1083612615281787</v>
+        <v>-0.02556256805056633</v>
       </c>
       <c r="D87">
-        <v>-0.005509060683542023</v>
+        <v>-0.07411919561701626</v>
       </c>
       <c r="E87">
-        <v>-0.05186359743648188</v>
+        <v>-0.05137649951026013</v>
       </c>
       <c r="F87">
-        <v>0.06384563784150475</v>
+        <v>-0.08518473017932542</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05734896422574409</v>
+        <v>-0.06242509646106333</v>
       </c>
       <c r="C88">
-        <v>0.06623972448338997</v>
+        <v>-0.003353063879531265</v>
       </c>
       <c r="D88">
-        <v>0.04194114009272468</v>
+        <v>-0.05363103060421323</v>
       </c>
       <c r="E88">
-        <v>-0.03524699206374463</v>
+        <v>0.02679449381535927</v>
       </c>
       <c r="F88">
-        <v>-0.01444213408597524</v>
+        <v>-0.008930788284964292</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.2296102304068074</v>
+        <v>-0.1334070913363567</v>
       </c>
       <c r="C89">
-        <v>-0.3652951331967189</v>
+        <v>-0.006514327605334561</v>
       </c>
       <c r="D89">
-        <v>-0.05478040011168316</v>
+        <v>0.2645000408073144</v>
       </c>
       <c r="E89">
-        <v>0.0109757409699642</v>
+        <v>-0.09018954894125419</v>
       </c>
       <c r="F89">
-        <v>0.02425020321076043</v>
+        <v>-0.0276521120104278</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1688067111177611</v>
+        <v>-0.1439477309264489</v>
       </c>
       <c r="C90">
-        <v>-0.2618154650469383</v>
+        <v>-0.02370924799232658</v>
       </c>
       <c r="D90">
-        <v>0.01057565646870643</v>
+        <v>0.2722681264584551</v>
       </c>
       <c r="E90">
-        <v>-0.04445591707996033</v>
+        <v>-0.1053963446156576</v>
       </c>
       <c r="F90">
-        <v>-0.02871625764406639</v>
+        <v>-0.02867550193790994</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.0811899128070743</v>
+        <v>-0.1176021161934112</v>
       </c>
       <c r="C91">
-        <v>0.078876309361486</v>
+        <v>-0.01646086168314752</v>
       </c>
       <c r="D91">
-        <v>0.008031300840846307</v>
+        <v>0.003765348671874083</v>
       </c>
       <c r="E91">
-        <v>0.009203763662444714</v>
+        <v>0.05734043659233776</v>
       </c>
       <c r="F91">
-        <v>-0.004599558175210038</v>
+        <v>0.02417009293494323</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1915514495552264</v>
+        <v>-0.147337223238134</v>
       </c>
       <c r="C92">
-        <v>-0.2961727813762685</v>
+        <v>-0.01549253367384085</v>
       </c>
       <c r="D92">
-        <v>-0.02479008532639699</v>
+        <v>0.3043834199637206</v>
       </c>
       <c r="E92">
-        <v>-0.03386250053170272</v>
+        <v>-0.1008298478871463</v>
       </c>
       <c r="F92">
-        <v>0.06277664373448101</v>
+        <v>-0.02454294835979901</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1773322099917253</v>
+        <v>-0.1478240326391863</v>
       </c>
       <c r="C93">
-        <v>-0.3064675528796073</v>
+        <v>-0.02007848553645885</v>
       </c>
       <c r="D93">
-        <v>0.04300740543616144</v>
+        <v>0.2741370834033057</v>
       </c>
       <c r="E93">
-        <v>-0.05168187667576288</v>
+        <v>-0.07185279068225711</v>
       </c>
       <c r="F93">
-        <v>0.009505290179844562</v>
+        <v>-0.02139856409432929</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1211269269232071</v>
+        <v>-0.1331405711125187</v>
       </c>
       <c r="C94">
-        <v>0.07890431175907101</v>
+        <v>-0.02353492228316259</v>
       </c>
       <c r="D94">
-        <v>-0.009006516530646207</v>
+        <v>-0.04804052234844707</v>
       </c>
       <c r="E94">
-        <v>0.04011478410785451</v>
+        <v>0.06030054529757341</v>
       </c>
       <c r="F94">
-        <v>-0.04403970924591576</v>
+        <v>-0.02999699767492505</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1137688630294752</v>
+        <v>-0.126603266323031</v>
       </c>
       <c r="C95">
-        <v>0.04726274675065246</v>
+        <v>-0.005742749883985382</v>
       </c>
       <c r="D95">
-        <v>-0.01881032469639734</v>
+        <v>-0.08975801846868696</v>
       </c>
       <c r="E95">
-        <v>0.07520311364539405</v>
+        <v>0.04455816915674848</v>
       </c>
       <c r="F95">
-        <v>0.06183474742805677</v>
+        <v>0.01298362050066475</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.003897727223143935</v>
+        <v>-0.09669967067431999</v>
       </c>
       <c r="C96">
-        <v>0.003186176931149281</v>
+        <v>0.9891736033789069</v>
       </c>
       <c r="D96">
-        <v>0.001209941380438081</v>
+        <v>0.02263755635389155</v>
       </c>
       <c r="E96">
-        <v>0.01094662754530463</v>
+        <v>0.05926986658327498</v>
       </c>
       <c r="F96">
-        <v>0.01181134961534733</v>
+        <v>-0.04860457274380089</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.13803620714749</v>
+        <v>-0.1869330718754002</v>
       </c>
       <c r="C97">
-        <v>0.09781324717524405</v>
+        <v>0.01172723615986832</v>
       </c>
       <c r="D97">
-        <v>-0.07174371770829366</v>
+        <v>0.0115460144208745</v>
       </c>
       <c r="E97">
-        <v>-0.5044742858919928</v>
+        <v>0.01446561934964023</v>
       </c>
       <c r="F97">
-        <v>0.1914304000891141</v>
+        <v>0.1763830603348093</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2317832145913272</v>
+        <v>-0.2063564831180776</v>
       </c>
       <c r="C98">
-        <v>0.09842529986195395</v>
+        <v>-0.006935409386001879</v>
       </c>
       <c r="D98">
-        <v>-0.09798000647905027</v>
+        <v>-0.01582159957542369</v>
       </c>
       <c r="E98">
-        <v>0.1106434409523772</v>
+        <v>-0.09000113666529543</v>
       </c>
       <c r="F98">
-        <v>-0.07879670487725574</v>
+        <v>0.1314329975876973</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.063561429881535</v>
+        <v>-0.05756666811023719</v>
       </c>
       <c r="C99">
-        <v>0.04362857606991812</v>
+        <v>0.003300148544102543</v>
       </c>
       <c r="D99">
-        <v>-0.005431181127898693</v>
+        <v>-0.03429481458906478</v>
       </c>
       <c r="E99">
-        <v>0.06206546333827381</v>
+        <v>0.02630388945555993</v>
       </c>
       <c r="F99">
-        <v>-0.03249964190852378</v>
+        <v>-0.005086065378128681</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.004845191923961558</v>
+        <v>-0.1241042639333503</v>
       </c>
       <c r="C100">
-        <v>-0.008349497020336228</v>
+        <v>0.0489079588693724</v>
       </c>
       <c r="D100">
-        <v>0.01126003143451552</v>
+        <v>-0.3325702622981809</v>
       </c>
       <c r="E100">
-        <v>-0.1035917475204689</v>
+        <v>-0.9027267114034616</v>
       </c>
       <c r="F100">
-        <v>0.009919642437373886</v>
+        <v>0.05941695772808836</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03095828495665374</v>
+        <v>-0.0270487973920706</v>
       </c>
       <c r="C101">
-        <v>0.02821322117150645</v>
+        <v>-0.009228049929976221</v>
       </c>
       <c r="D101">
-        <v>0.02552088086037237</v>
+        <v>-0.02979821985673551</v>
       </c>
       <c r="E101">
-        <v>-0.02778783339040748</v>
+        <v>0.01026882823133128</v>
       </c>
       <c r="F101">
-        <v>0.0325666066746447</v>
+        <v>0.01171743416448552</v>
       </c>
     </row>
     <row r="102" spans="1:6">
